--- a/data/trans_orig/P16A_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A_R-Edad-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2007 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido algún psicofármaco en las dos últimas semanas en 2007 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2533,7 +2533,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2012 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido algún psicofármaco en las dos últimas semanas en 2012 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4512,7 +4512,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido algún psicofármaco en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6491,7 +6491,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2023 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido algún psicofármaco en las dos últimas semanas en 2023 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A_R-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>2807</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7453</v>
+        <v>8256</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005681964676978284</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001833948175105872</v>
+        <v>0.001836733478143047</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01508461167470069</v>
+        <v>0.01671077252476585</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -765,19 +765,19 @@
         <v>17170</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10288</v>
+        <v>10431</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>25675</v>
+        <v>25840</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03672898575365737</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02200667381509049</v>
+        <v>0.02231373926230205</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05492052524470968</v>
+        <v>0.05527455017322822</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>21</v>
@@ -786,19 +786,19 @@
         <v>19978</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12393</v>
+        <v>12986</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>29757</v>
+        <v>29280</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02077644652840166</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01288859029896935</v>
+        <v>0.01350538371872837</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03094721914406955</v>
+        <v>0.03045028958214122</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>491257</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>486611</v>
+        <v>485808</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>493158</v>
+        <v>493157</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9943180353230218</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9849153883252993</v>
+        <v>0.9832892274752341</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9981660518248942</v>
+        <v>0.9981632665218569</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>471</v>
@@ -836,19 +836,19 @@
         <v>450319</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>441814</v>
+        <v>441649</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>457201</v>
+        <v>457058</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9632710142463426</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9450794747552902</v>
+        <v>0.9447254498267715</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9779933261849093</v>
+        <v>0.9776862607376979</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>967</v>
@@ -857,19 +857,19 @@
         <v>941575</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>931796</v>
+        <v>932273</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>949160</v>
+        <v>948567</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9792235534715983</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9690527808559303</v>
+        <v>0.9695497104178588</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9871114097010307</v>
+        <v>0.9864946162812717</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>21214</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13436</v>
+        <v>13690</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30789</v>
+        <v>32274</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02884297640637978</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01826774231069382</v>
+        <v>0.01861283761615013</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04186212867843805</v>
+        <v>0.04388058982416237</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>26</v>
@@ -982,19 +982,19 @@
         <v>28002</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>18648</v>
+        <v>19254</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>39810</v>
+        <v>39877</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04476816159727803</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02981304350953893</v>
+        <v>0.03078239103646274</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06364569142603149</v>
+        <v>0.06375261424962043</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>48</v>
@@ -1003,19 +1003,19 @@
         <v>49216</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>37275</v>
+        <v>37260</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>66149</v>
+        <v>64575</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0361620311502559</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0273884188354436</v>
+        <v>0.02737732214164173</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04860404162715394</v>
+        <v>0.04744713684686706</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>714275</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>704700</v>
+        <v>703215</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>722053</v>
+        <v>721799</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9711570235936202</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.958137871321562</v>
+        <v>0.956119410175838</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9817322576893064</v>
+        <v>0.98138716238385</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>565</v>
@@ -1053,19 +1053,19 @@
         <v>597492</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>585684</v>
+        <v>585617</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>606846</v>
+        <v>606240</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.955231838402722</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9363543085739685</v>
+        <v>0.9362473857503796</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9701869564904609</v>
+        <v>0.9692176089635374</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1246</v>
@@ -1074,19 +1074,19 @@
         <v>1311766</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1294833</v>
+        <v>1296407</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1323707</v>
+        <v>1323722</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9638379688497442</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9513959583728461</v>
+        <v>0.9525528631531329</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9726115811645565</v>
+        <v>0.9726226778583582</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>18107</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10435</v>
+        <v>11449</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27346</v>
+        <v>28019</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02835112731985029</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01633843035884332</v>
+        <v>0.01792660936403609</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04281711205468845</v>
+        <v>0.0438707030470756</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>52</v>
@@ -1199,19 +1199,19 @@
         <v>53740</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>40848</v>
+        <v>41045</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>70205</v>
+        <v>69121</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07791271046745109</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05922249753490221</v>
+        <v>0.05950807779343116</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1017845823372269</v>
+        <v>0.100213142148391</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>70</v>
@@ -1220,19 +1220,19 @@
         <v>71847</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>56451</v>
+        <v>57298</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>89098</v>
+        <v>88779</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05408472607840582</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04249523582657239</v>
+        <v>0.04313244557662568</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0670712873557817</v>
+        <v>0.06683083459794804</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>620561</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>611322</v>
+        <v>610649</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>628233</v>
+        <v>627219</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9716488726801497</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9571828879453116</v>
+        <v>0.9561292969529253</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9836615696411568</v>
+        <v>0.982073390635964</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>606</v>
@@ -1270,19 +1270,19 @@
         <v>636004</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>619539</v>
+        <v>620623</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>648896</v>
+        <v>648699</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9220872895325489</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8982154176627731</v>
+        <v>0.8997868578516091</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9407775024650977</v>
+        <v>0.9404919222065689</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1201</v>
@@ -1291,19 +1291,19 @@
         <v>1256565</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1239314</v>
+        <v>1239633</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1271961</v>
+        <v>1271114</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9459152739215941</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9329287126442184</v>
+        <v>0.933169165402052</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9575047641734277</v>
+        <v>0.9568675544233743</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>28389</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18652</v>
+        <v>18789</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>41132</v>
+        <v>40974</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05468352104966241</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03592763077033699</v>
+        <v>0.03619152345490732</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07923077656625362</v>
+        <v>0.07892501772716709</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>69</v>
@@ -1416,19 +1416,19 @@
         <v>69938</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>53830</v>
+        <v>56409</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>85165</v>
+        <v>86780</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1356330039833731</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1043944760584561</v>
+        <v>0.1093953579807842</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1651637115924106</v>
+        <v>0.1682958710309571</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>95</v>
@@ -1437,19 +1437,19 @@
         <v>98327</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>81785</v>
+        <v>82376</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>116041</v>
+        <v>119763</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09502116587142277</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07903562954545509</v>
+        <v>0.07960612087043467</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1121393934478043</v>
+        <v>0.1157364822674614</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>490758</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>478015</v>
+        <v>478173</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>500495</v>
+        <v>500358</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9453164789503375</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9207692234337459</v>
+        <v>0.9210749822728329</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9640723692296628</v>
+        <v>0.9638084765450926</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>433</v>
@@ -1487,19 +1487,19 @@
         <v>445704</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>430477</v>
+        <v>428862</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>461812</v>
+        <v>459233</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8643669960166269</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8348362884075895</v>
+        <v>0.8317041289690429</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8956055239415439</v>
+        <v>0.8906046420192157</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>891</v>
@@ -1508,19 +1508,19 @@
         <v>936462</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>918748</v>
+        <v>915026</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>953004</v>
+        <v>952413</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9049788341285773</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.887860606552196</v>
+        <v>0.8842635177325386</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9209643704545452</v>
+        <v>0.9203938791295653</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>30127</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>20862</v>
+        <v>20167</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>42205</v>
+        <v>41238</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07790697567325716</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05394632654480757</v>
+        <v>0.0521514678576034</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1091397004407301</v>
+        <v>0.1066376514262276</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>74</v>
@@ -1633,19 +1633,19 @@
         <v>75472</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>60950</v>
+        <v>62253</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>90623</v>
+        <v>90883</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1868174111058588</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1508708207628396</v>
+        <v>0.1540979830592125</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.224321459127727</v>
+        <v>0.2249647480091568</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>104</v>
@@ -1654,19 +1654,19 @@
         <v>105599</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>87419</v>
+        <v>87873</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>125280</v>
+        <v>124896</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1335519872727212</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1105598546520723</v>
+        <v>0.1111335752009633</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1584425333436145</v>
+        <v>0.1579570602977797</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>356583</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>344505</v>
+        <v>345472</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>365848</v>
+        <v>366543</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9220930243267429</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8908602995592699</v>
+        <v>0.8933623485737725</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9460536734551924</v>
+        <v>0.9478485321423967</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>322</v>
@@ -1704,19 +1704,19 @@
         <v>328514</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>313363</v>
+        <v>313103</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>343036</v>
+        <v>341733</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8131825888941412</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7756785408722733</v>
+        <v>0.7750352519908436</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8491291792371605</v>
+        <v>0.845902016940788</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>684</v>
@@ -1725,19 +1725,19 @@
         <v>685097</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>665416</v>
+        <v>665800</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>703277</v>
+        <v>702823</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8664480127272789</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8415574666563855</v>
+        <v>0.8420429397022202</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8894401453479277</v>
+        <v>0.8888664247990367</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>28898</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>19790</v>
+        <v>20500</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>38639</v>
+        <v>39913</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09876859279337449</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06763777200445673</v>
+        <v>0.07006535853707638</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1320610549501292</v>
+        <v>0.1364160586621794</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>74</v>
@@ -1850,19 +1850,19 @@
         <v>69404</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>56040</v>
+        <v>55475</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>84004</v>
+        <v>83663</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2023816863146591</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1634119265193132</v>
+        <v>0.1617668899997545</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2449558792513437</v>
+        <v>0.2439619090300986</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>105</v>
@@ -1871,19 +1871,19 @@
         <v>98302</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>81767</v>
+        <v>81458</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>115554</v>
+        <v>116181</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.154679689671135</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1286619293031289</v>
+        <v>0.1281751904056986</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1818264011619163</v>
+        <v>0.1828134274547427</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>263685</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>253944</v>
+        <v>252670</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>272793</v>
+        <v>272083</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9012314072066255</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8679389450498708</v>
+        <v>0.8635839413378207</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9323622279955432</v>
+        <v>0.9299346414629236</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>297</v>
@@ -1921,19 +1921,19 @@
         <v>273530</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>258930</v>
+        <v>259271</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>286894</v>
+        <v>287459</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7976183136853409</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7550441207486563</v>
+        <v>0.7560380909699014</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8365880734806865</v>
+        <v>0.8382331100002456</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>569</v>
@@ -1942,19 +1942,19 @@
         <v>537215</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>519963</v>
+        <v>519336</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>553750</v>
+        <v>554059</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.845320310328865</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8181735988380836</v>
+        <v>0.8171865725452571</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8713380706968707</v>
+        <v>0.8718248095943014</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>31483</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>22189</v>
+        <v>22195</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>42389</v>
+        <v>42223</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.150003619382521</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1057221798542421</v>
+        <v>0.105749207341887</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.201962834960616</v>
+        <v>0.2011735112611046</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>54</v>
@@ -2067,19 +2067,19 @@
         <v>63081</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>49203</v>
+        <v>48994</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>79035</v>
+        <v>79547</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1889186366441741</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1473557393981942</v>
+        <v>0.1467285675852024</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2366981505364956</v>
+        <v>0.2382309170945411</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>87</v>
@@ -2088,19 +2088,19 @@
         <v>94565</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>78217</v>
+        <v>77113</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>112981</v>
+        <v>114635</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1738988940491953</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1438365930714694</v>
+        <v>0.1418059838807531</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2077658078098669</v>
+        <v>0.2108077662390498</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>178400</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>167494</v>
+        <v>167660</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>187694</v>
+        <v>187688</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.849996380617479</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.798037165039384</v>
+        <v>0.7988264887388948</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.894277820145758</v>
+        <v>0.8942507926581128</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>236</v>
@@ -2138,19 +2138,19 @@
         <v>270827</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>254873</v>
+        <v>254361</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>284705</v>
+        <v>284914</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8110813633558259</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7633018494635047</v>
+        <v>0.7617690829054591</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8526442606018059</v>
+        <v>0.8532714324147976</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>423</v>
@@ -2159,19 +2159,19 @@
         <v>449226</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>430810</v>
+        <v>429156</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>465574</v>
+        <v>466678</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8261011059508047</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7922341921901331</v>
+        <v>0.7891922337609503</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8561634069285307</v>
+        <v>0.8581940161192469</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>161025</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>137855</v>
+        <v>139899</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>187146</v>
+        <v>185988</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04914487340575364</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0420732608442741</v>
+        <v>0.0426970094682789</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05711691939304123</v>
+        <v>0.05676361908476334</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>367</v>
@@ -2284,19 +2284,19 @@
         <v>376807</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>342786</v>
+        <v>342502</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>415323</v>
+        <v>416447</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1115078897795158</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1014400154049544</v>
+        <v>0.1013560041919524</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1229058573576801</v>
+        <v>0.1232384754402429</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>530</v>
@@ -2305,19 +2305,19 @@
         <v>537832</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>495514</v>
+        <v>489557</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>588250</v>
+        <v>583759</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08080730570318109</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07444903985757284</v>
+        <v>0.07355411007078812</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08838235495880821</v>
+        <v>0.08770765617422931</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>3115518</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3089397</v>
+        <v>3090555</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3138688</v>
+        <v>3136644</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9508551265942463</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9428830806069589</v>
+        <v>0.943236380915237</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.957926739155726</v>
+        <v>0.9573029905317213</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2930</v>
@@ -2355,19 +2355,19 @@
         <v>3002390</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2963874</v>
+        <v>2962750</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3036411</v>
+        <v>3036695</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8884921102204841</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8770941426423199</v>
+        <v>0.8767615245597572</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8985599845950456</v>
+        <v>0.8986439958080475</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5981</v>
@@ -2376,19 +2376,19 @@
         <v>6117909</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6067491</v>
+        <v>6071982</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6160227</v>
+        <v>6166184</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9191926942968189</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9116176450411918</v>
+        <v>0.9122923438257707</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9255509601424271</v>
+        <v>0.926445889929212</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>6378</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2646</v>
+        <v>2664</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12076</v>
+        <v>12284</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01404370542452556</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005825560376320534</v>
+        <v>0.005866009748391769</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02659068386375985</v>
+        <v>0.02704936387177464</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -2744,19 +2744,19 @@
         <v>12476</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6622</v>
+        <v>6767</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20407</v>
+        <v>21494</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02899770661257998</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01539201277070527</v>
+        <v>0.01572820938306596</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04743337200444622</v>
+        <v>0.04996007708658723</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -2765,19 +2765,19 @@
         <v>18854</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>11552</v>
+        <v>12075</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>29732</v>
+        <v>29080</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02131850406099691</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01306278621769781</v>
+        <v>0.01365417126208956</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0336194182824447</v>
+        <v>0.0328824696388348</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>447768</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>442070</v>
+        <v>441862</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>451500</v>
+        <v>451482</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9859562945754744</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.97340931613624</v>
+        <v>0.9729506361282255</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9941744396236794</v>
+        <v>0.9941339902516082</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>409</v>
@@ -2815,19 +2815,19 @@
         <v>417754</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>409823</v>
+        <v>408736</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>423608</v>
+        <v>423463</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9710022933874201</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9525666279955538</v>
+        <v>0.9500399229134132</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9846079872292948</v>
+        <v>0.984271790616934</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>848</v>
@@ -2836,19 +2836,19 @@
         <v>865522</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>854644</v>
+        <v>855296</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>872824</v>
+        <v>872301</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9786814959390031</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9663805817175554</v>
+        <v>0.9671175303611652</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9869372137823021</v>
+        <v>0.9863458287379104</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>26873</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16691</v>
+        <v>17135</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>40850</v>
+        <v>40009</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03911197627264622</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02429225705860814</v>
+        <v>0.02493821446527256</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0594534161260818</v>
+        <v>0.0582303789207196</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>30</v>
@@ -2961,19 +2961,19 @@
         <v>33102</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>22224</v>
+        <v>21286</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>47030</v>
+        <v>45805</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0542423939699592</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03641749017227043</v>
+        <v>0.03488003952081258</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07706563698946402</v>
+        <v>0.07505857465489141</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>53</v>
@@ -2982,19 +2982,19 @@
         <v>59975</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>46149</v>
+        <v>43803</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>77624</v>
+        <v>75287</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04622915589327901</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03557233522448502</v>
+        <v>0.0337634201903732</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05983307423694161</v>
+        <v>0.05803178979565487</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>660214</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>646237</v>
+        <v>647078</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>670396</v>
+        <v>669952</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9608880237273538</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9405465838739182</v>
+        <v>0.9417696210792801</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9757077429413918</v>
+        <v>0.975061785534727</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>541</v>
@@ -3032,19 +3032,19 @@
         <v>577153</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>563225</v>
+        <v>564450</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>588031</v>
+        <v>588969</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9457576060300408</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.922934363010536</v>
+        <v>0.9249414253451088</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9635825098277292</v>
+        <v>0.9651199604791878</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1185</v>
@@ -3053,19 +3053,19 @@
         <v>1237367</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1219718</v>
+        <v>1222055</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1251193</v>
+        <v>1253539</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.953770844106721</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9401669257630586</v>
+        <v>0.9419682102043451</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9644276647755152</v>
+        <v>0.9662365798096268</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>38767</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>27382</v>
+        <v>26150</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>52976</v>
+        <v>53037</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05685436368034125</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04015772931995816</v>
+        <v>0.03835016524557962</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07769296157126333</v>
+        <v>0.07778226550190402</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>80</v>
@@ -3178,19 +3178,19 @@
         <v>84020</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>67570</v>
+        <v>67436</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>103153</v>
+        <v>102910</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1181958889002819</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09505462137561212</v>
+        <v>0.09486682524623681</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1451128809052327</v>
+        <v>0.1447705092829992</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>114</v>
@@ -3199,19 +3199,19 @@
         <v>122786</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>99955</v>
+        <v>103226</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>146697</v>
+        <v>146566</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08816348733722636</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07177032399530507</v>
+        <v>0.07411861150010954</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1053315440509574</v>
+        <v>0.105237579712115</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>643096</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>628887</v>
+        <v>628826</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>654481</v>
+        <v>655713</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9431456363196588</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9223070384287366</v>
+        <v>0.922217734498096</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9598422706800419</v>
+        <v>0.9616498347544205</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>587</v>
@@ -3249,19 +3249,19 @@
         <v>626830</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>607697</v>
+        <v>607940</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>643280</v>
+        <v>643414</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8818041110997181</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8548871190947686</v>
+        <v>0.8552294907170008</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9049453786243881</v>
+        <v>0.9051331747537632</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1204</v>
@@ -3270,19 +3270,19 @@
         <v>1269926</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1246015</v>
+        <v>1246146</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1292757</v>
+        <v>1289486</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9118365126627737</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8946684559490427</v>
+        <v>0.894762420287885</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9282296760046949</v>
+        <v>0.9258813884998904</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>40795</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>29871</v>
+        <v>29505</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>54149</v>
+        <v>55860</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06637491656329055</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04860180552649969</v>
+        <v>0.04800572463641776</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08810172733313462</v>
+        <v>0.09088588897907096</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>94</v>
@@ -3395,19 +3395,19 @@
         <v>104251</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>85903</v>
+        <v>86454</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>125198</v>
+        <v>127225</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.169183670488962</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1394075517957267</v>
+        <v>0.1403024975758812</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2031776086124482</v>
+        <v>0.2064676393775631</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>131</v>
@@ -3416,19 +3416,19 @@
         <v>145046</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>121736</v>
+        <v>119568</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>172463</v>
+        <v>169552</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1178453825064988</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09890684170683374</v>
+        <v>0.0971450671262705</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1401211173074517</v>
+        <v>0.1377554718215323</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>573822</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>560468</v>
+        <v>558757</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>584746</v>
+        <v>585112</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9336250834367095</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9118982726668654</v>
+        <v>0.9091141110209292</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9513981944735004</v>
+        <v>0.9519942753635823</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>445</v>
@@ -3466,19 +3466,19 @@
         <v>511948</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>491001</v>
+        <v>488974</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>530296</v>
+        <v>529745</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.830816329511038</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.796822391387552</v>
+        <v>0.793532360622437</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8605924482042734</v>
+        <v>0.8596975024241189</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>956</v>
@@ -3487,19 +3487,19 @@
         <v>1085770</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1058353</v>
+        <v>1061264</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1109080</v>
+        <v>1111248</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8821546174935012</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8598788826925482</v>
+        <v>0.8622445281784676</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9010931582931663</v>
+        <v>0.9028549328737294</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>45096</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>31779</v>
+        <v>33237</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>57970</v>
+        <v>60090</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1050131876999581</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07400302618556315</v>
+        <v>0.07739911826241952</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1349925197930648</v>
+        <v>0.1399303287606194</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>99</v>
@@ -3612,19 +3612,19 @@
         <v>104774</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>86839</v>
+        <v>86694</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>123076</v>
+        <v>123271</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2339751740900677</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1939241058283994</v>
+        <v>0.1935999843427284</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2748456405415233</v>
+        <v>0.2752804892246711</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>141</v>
@@ -3633,19 +3633,19 @@
         <v>149870</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>129228</v>
+        <v>130011</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>174116</v>
+        <v>172624</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1708445350170725</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1473133641055989</v>
+        <v>0.1482063310343739</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1984836394891654</v>
+        <v>0.1967827807346727</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>384333</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>371459</v>
+        <v>369339</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>397650</v>
+        <v>396192</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.894986812300042</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8650074802069353</v>
+        <v>0.8600696712393806</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9259969738144369</v>
+        <v>0.9226008817375806</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>307</v>
@@ -3683,19 +3683,19 @@
         <v>343026</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>324724</v>
+        <v>324529</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>360961</v>
+        <v>361106</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7660248259099323</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7251543594584768</v>
+        <v>0.7247195107753289</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8060758941716007</v>
+        <v>0.8064000156572716</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>658</v>
@@ -3704,19 +3704,19 @@
         <v>727359</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>703113</v>
+        <v>704605</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>748001</v>
+        <v>747218</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8291554649829275</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8015163605108346</v>
+        <v>0.8032172192653263</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8526866358944011</v>
+        <v>0.8517936689656257</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>33672</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>22784</v>
+        <v>22913</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>46367</v>
+        <v>46977</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1086944839059894</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07354656871133686</v>
+        <v>0.07396240912505335</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1496736131103792</v>
+        <v>0.1516433665195167</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>90</v>
@@ -3829,19 +3829,19 @@
         <v>90787</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>75611</v>
+        <v>74755</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>107358</v>
+        <v>108454</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.256463352555364</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2135927850998133</v>
+        <v>0.2111754063736588</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3032754260703758</v>
+        <v>0.3063700643615804</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>119</v>
@@ -3850,19 +3850,19 @@
         <v>124459</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>105977</v>
+        <v>104383</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>147693</v>
+        <v>146021</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1874998357532805</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1596558578939675</v>
+        <v>0.1572546200420286</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2225015558041207</v>
+        <v>0.2199830821350954</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>276114</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>263419</v>
+        <v>262809</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>287002</v>
+        <v>286873</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8913055160940105</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8503263868896203</v>
+        <v>0.8483566334804834</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.926453431288663</v>
+        <v>0.9260375908749466</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>254</v>
@@ -3900,19 +3900,19 @@
         <v>263209</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>246638</v>
+        <v>245542</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>278385</v>
+        <v>279241</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.743536647444636</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6967245739296243</v>
+        <v>0.6936299356384197</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7864072149001866</v>
+        <v>0.7888245936263413</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>507</v>
@@ -3921,19 +3921,19 @@
         <v>539323</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>516089</v>
+        <v>517761</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>557805</v>
+        <v>559399</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8125001642467196</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.77749844419588</v>
+        <v>0.7800169178649048</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8403441421060326</v>
+        <v>0.8427453799579717</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>36099</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>25549</v>
+        <v>25097</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>50538</v>
+        <v>49317</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.144483910002275</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1022556560871927</v>
+        <v>0.1004462250281817</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2022740887225224</v>
+        <v>0.1973868270534664</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>112</v>
@@ -4046,19 +4046,19 @@
         <v>125417</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>107123</v>
+        <v>106733</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>146376</v>
+        <v>146818</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3224266469065065</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.275396117834849</v>
+        <v>0.2743928785008511</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3763087446999157</v>
+        <v>0.3774436139956714</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>142</v>
@@ -4067,19 +4067,19 @@
         <v>161517</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>138072</v>
+        <v>137403</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>185219</v>
+        <v>183668</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2528319894177339</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2161324481703429</v>
+        <v>0.2150847939004616</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2899347667564905</v>
+        <v>0.2875075222571931</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>213752</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>199313</v>
+        <v>200534</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>224302</v>
+        <v>224754</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.855516089997725</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7977259112774776</v>
+        <v>0.8026131729465338</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8977443439128073</v>
+        <v>0.8995537749718184</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>238</v>
@@ -4117,19 +4117,19 @@
         <v>263562</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>242603</v>
+        <v>242161</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>281856</v>
+        <v>282246</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6775733530934935</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6236912553000843</v>
+        <v>0.6225563860043286</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7246038821651509</v>
+        <v>0.725607121499149</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>430</v>
@@ -4138,19 +4138,19 @@
         <v>477313</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>453611</v>
+        <v>455162</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>500758</v>
+        <v>501427</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7471680105822661</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7100652332435095</v>
+        <v>0.7124924777428071</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7838675518296571</v>
+        <v>0.7849152060995388</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>227680</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>199201</v>
+        <v>196926</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>262819</v>
+        <v>258005</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06644152872346339</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05813063991163545</v>
+        <v>0.05746668967104272</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07669556211991747</v>
+        <v>0.07529091260980979</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>517</v>
@@ -4263,19 +4263,19 @@
         <v>554826</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>510457</v>
+        <v>509607</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>602450</v>
+        <v>599446</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1559240591775809</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1434550107223809</v>
+        <v>0.1432160928701153</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1693078760066396</v>
+        <v>0.1684638530021988</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>719</v>
@@ -4284,19 +4284,19 @@
         <v>782506</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>730335</v>
+        <v>729928</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>835467</v>
+        <v>836114</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1120252785224281</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1045563095667852</v>
+        <v>0.1044980968154723</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1196072179792998</v>
+        <v>0.1196998952315047</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>3199099</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3163960</v>
+        <v>3168774</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3227578</v>
+        <v>3229853</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9335584712765366</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9233044378800828</v>
+        <v>0.9247090873901901</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9418693600883646</v>
+        <v>0.9425333103289573</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2781</v>
@@ -4334,19 +4334,19 @@
         <v>3003483</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2955859</v>
+        <v>2958863</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3047852</v>
+        <v>3048702</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8440759408224191</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8306921239933603</v>
+        <v>0.8315361469978008</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.856544989277619</v>
+        <v>0.8567839071298843</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5788</v>
@@ -4355,19 +4355,19 @@
         <v>6202582</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6149621</v>
+        <v>6148974</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6254753</v>
+        <v>6255160</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8879747214775718</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8803927820207003</v>
+        <v>0.8803001047684953</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8954436904332148</v>
+        <v>0.8955019031845277</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>4494</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1394</v>
+        <v>1063</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12128</v>
+        <v>10391</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01071254721098945</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003324361531253032</v>
+        <v>0.002534991313478626</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02891292295571216</v>
+        <v>0.02477155312033883</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -4723,19 +4723,19 @@
         <v>12076</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6419</v>
+        <v>6678</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20607</v>
+        <v>20805</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03051401254060731</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01621994305292943</v>
+        <v>0.01687305340026713</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05207126752096346</v>
+        <v>0.0525696592571621</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -4744,19 +4744,19 @@
         <v>16570</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9550</v>
+        <v>9614</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>26383</v>
+        <v>26492</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02032534888614738</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0117147342081943</v>
+        <v>0.01179298183790169</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03236300532706061</v>
+        <v>0.03249726779405281</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>414969</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>407335</v>
+        <v>409072</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>418069</v>
+        <v>418400</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9892874527890105</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9710870770442881</v>
+        <v>0.9752284468796613</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.996675638468747</v>
+        <v>0.9974650086865213</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>392</v>
@@ -4794,19 +4794,19 @@
         <v>383679</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>375148</v>
+        <v>374950</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>389336</v>
+        <v>389077</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9694859874593927</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9479287324790368</v>
+        <v>0.9474303407428378</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9837800569470706</v>
+        <v>0.9831269465997329</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>781</v>
@@ -4815,19 +4815,19 @@
         <v>798648</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>788835</v>
+        <v>788726</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>805668</v>
+        <v>805604</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9796746511138527</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9676369946729398</v>
+        <v>0.9675027322059473</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9882852657918059</v>
+        <v>0.9882070181620984</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>13882</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7879</v>
+        <v>8806</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22687</v>
+        <v>22883</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02350989511330704</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01334241222376904</v>
+        <v>0.0149127549177349</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03841977653821267</v>
+        <v>0.03875143039166319</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -4940,19 +4940,19 @@
         <v>20196</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>13034</v>
+        <v>13159</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>30321</v>
+        <v>30359</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03583775629220533</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02312915444842047</v>
+        <v>0.02334988094012105</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05380393072693791</v>
+        <v>0.05387075347780929</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>35</v>
@@ -4961,19 +4961,19 @@
         <v>34079</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>24604</v>
+        <v>24589</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>46861</v>
+        <v>46171</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02952986723534263</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02131966542654019</v>
+        <v>0.02130704629876801</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04060613113902255</v>
+        <v>0.04000822768774769</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>576614</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>567809</v>
+        <v>567613</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>582617</v>
+        <v>581690</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.976490104886693</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9615802234617873</v>
+        <v>0.9612485696083368</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9866575877762308</v>
+        <v>0.9850872450822651</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>558</v>
@@ -5011,19 +5011,19 @@
         <v>543348</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>533223</v>
+        <v>533185</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>550510</v>
+        <v>550385</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9641622437077947</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.946196069273062</v>
+        <v>0.9461292465221907</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9768708455515795</v>
+        <v>0.976650119059879</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1111</v>
@@ -5032,19 +5032,19 @@
         <v>1119961</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1107179</v>
+        <v>1107869</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1129436</v>
+        <v>1129451</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9704701327646573</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9593938688609776</v>
+        <v>0.9599917723122512</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9786803345734598</v>
+        <v>0.9786929537012319</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>34459</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>24097</v>
+        <v>23733</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>49062</v>
+        <v>47208</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.051500336019492</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0360148637672341</v>
+        <v>0.03547053687420351</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07332581372796848</v>
+        <v>0.0705542353985748</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>62</v>
@@ -5157,19 +5157,19 @@
         <v>59870</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>46250</v>
+        <v>46534</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>74785</v>
+        <v>75969</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09052265055902591</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06992954246880488</v>
+        <v>0.0703578848642186</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1130737592493729</v>
+        <v>0.1148629911119087</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>94</v>
@@ -5178,19 +5178,19 @@
         <v>94329</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>78421</v>
+        <v>76236</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>116548</v>
+        <v>113849</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07089842228704023</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0589417897441001</v>
+        <v>0.05729926460836371</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0875983739236474</v>
+        <v>0.08556950911473674</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>634638</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>620035</v>
+        <v>621889</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>645000</v>
+        <v>645364</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.948499663980508</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9266741862720316</v>
+        <v>0.9294457646014251</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9639851362327659</v>
+        <v>0.9645294631257965</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>603</v>
@@ -5228,19 +5228,19 @@
         <v>601516</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>586601</v>
+        <v>585417</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>615136</v>
+        <v>614852</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9094773494409741</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.886926240750628</v>
+        <v>0.8851370088880913</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9300704575311957</v>
+        <v>0.9296421151357814</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1209</v>
@@ -5249,19 +5249,19 @@
         <v>1236154</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1213935</v>
+        <v>1216634</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1252062</v>
+        <v>1254247</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9291015777129598</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9124016260763527</v>
+        <v>0.9144304908852632</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9410582102559001</v>
+        <v>0.9427007353916362</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>44931</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>32847</v>
+        <v>32287</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>59365</v>
+        <v>58805</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06954816137890754</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05084232222620456</v>
+        <v>0.04997649130358012</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09188996637741284</v>
+        <v>0.0910223673802769</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>91</v>
@@ -5374,19 +5374,19 @@
         <v>99114</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>82166</v>
+        <v>82946</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>119362</v>
+        <v>119867</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1526997087040093</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1265882437910627</v>
+        <v>0.1277903443381706</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1838944942631725</v>
+        <v>0.1846736970895644</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>133</v>
@@ -5395,19 +5395,19 @@
         <v>144045</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>123278</v>
+        <v>123261</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>171229</v>
+        <v>169355</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1112211596823295</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09518601159494587</v>
+        <v>0.09517320589316658</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1322104249845814</v>
+        <v>0.1307632180897008</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>601117</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>586683</v>
+        <v>587243</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>613201</v>
+        <v>613761</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9304518386210925</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9081100336225871</v>
+        <v>0.908977632619723</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9491576777737953</v>
+        <v>0.9500235086964198</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>511</v>
@@ -5445,19 +5445,19 @@
         <v>549963</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>529715</v>
+        <v>529210</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>566911</v>
+        <v>566131</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8473002912959907</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8161055057368276</v>
+        <v>0.8153263029104354</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8734117562089374</v>
+        <v>0.8722096556618293</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1051</v>
@@ -5466,19 +5466,19 @@
         <v>1151080</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1123896</v>
+        <v>1125770</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1171847</v>
+        <v>1171864</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8887788403176705</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8677895750154186</v>
+        <v>0.8692367819102991</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9048139884050541</v>
+        <v>0.9048267941068334</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>42714</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>30785</v>
+        <v>30376</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>57521</v>
+        <v>56300</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08937542258620929</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06441525979465165</v>
+        <v>0.06355842798946976</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1203568026666848</v>
+        <v>0.1178026157294761</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>116</v>
@@ -5591,19 +5591,19 @@
         <v>130425</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>111350</v>
+        <v>111361</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>152218</v>
+        <v>149833</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2625049652739882</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2241128520026509</v>
+        <v>0.2241346742107128</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3063668125577925</v>
+        <v>0.3015656284384516</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>153</v>
@@ -5612,19 +5612,19 @@
         <v>173139</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>150464</v>
+        <v>149095</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>199864</v>
+        <v>199105</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1776213730620275</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1543587410777539</v>
+        <v>0.1529543830917475</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2050379875435102</v>
+        <v>0.2042593865602754</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>435204</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>420397</v>
+        <v>421618</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>447133</v>
+        <v>447542</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9106245774137907</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8796431973333152</v>
+        <v>0.882197384270524</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9355847402053483</v>
+        <v>0.9364415720105302</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>317</v>
@@ -5662,19 +5662,19 @@
         <v>366424</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>344631</v>
+        <v>347016</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>385499</v>
+        <v>385488</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7374950347260117</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6936331874422075</v>
+        <v>0.6984343715615482</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7758871479973493</v>
+        <v>0.7758653257892871</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>704</v>
@@ -5683,19 +5683,19 @@
         <v>801628</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>774903</v>
+        <v>775662</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>824303</v>
+        <v>825672</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8223786269379725</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7949620124564897</v>
+        <v>0.7957406134397246</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.845641258922246</v>
+        <v>0.8470456169082523</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>34344</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>24936</v>
+        <v>24561</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>46204</v>
+        <v>46547</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1027255133786797</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07458382876486269</v>
+        <v>0.073463628896154</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1381977297699404</v>
+        <v>0.1392253306073581</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>105</v>
@@ -5808,19 +5808,19 @@
         <v>112501</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>94384</v>
+        <v>95484</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>130644</v>
+        <v>132908</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2978091606771515</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2498502951958546</v>
+        <v>0.2527613354203558</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3458366213178032</v>
+        <v>0.3518287541472688</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>139</v>
@@ -5829,19 +5829,19 @@
         <v>146845</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>126362</v>
+        <v>125918</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>169723</v>
+        <v>169691</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2062166200163883</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1774517138301864</v>
+        <v>0.1768285713261825</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2383437834179389</v>
+        <v>0.2382988769811208</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>299986</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>288126</v>
+        <v>287783</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>309394</v>
+        <v>309769</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8972744866213203</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8618022702300597</v>
+        <v>0.8607746693926429</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9254161712351373</v>
+        <v>0.9265363711038463</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>249</v>
@@ -5879,19 +5879,19 @@
         <v>265261</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>247118</v>
+        <v>244854</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>283378</v>
+        <v>282278</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7021908393228484</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6541633786821968</v>
+        <v>0.6481712458527312</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7501497048041454</v>
+        <v>0.7472386645796442</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>540</v>
@@ -5900,19 +5900,19 @@
         <v>565247</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>542369</v>
+        <v>542401</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>585730</v>
+        <v>586174</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7937833799836117</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.761656216582061</v>
+        <v>0.7617011230188793</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8225482861698133</v>
+        <v>0.8231714286738173</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>37873</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>27430</v>
+        <v>28650</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>48103</v>
+        <v>49181</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1473683005738214</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.106733286947021</v>
+        <v>0.1114777966784032</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1871727340405164</v>
+        <v>0.1913660366226912</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>79</v>
@@ -6025,19 +6025,19 @@
         <v>104149</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>83928</v>
+        <v>84350</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>123947</v>
+        <v>125482</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2602613849803876</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2097326036347353</v>
+        <v>0.2107856139764726</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3097376346852462</v>
+        <v>0.3135734973228977</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>122</v>
@@ -6046,19 +6046,19 @@
         <v>142022</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>121220</v>
+        <v>121353</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>165486</v>
+        <v>166430</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2161123376230671</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1844581534676931</v>
+        <v>0.1846604592356572</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2518180170823129</v>
+        <v>0.2532544263212626</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>219125</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>208895</v>
+        <v>207817</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>229568</v>
+        <v>228348</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8526316994261787</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8128272659594836</v>
+        <v>0.8086339633773086</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8932667130529789</v>
+        <v>0.8885222033215967</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>222</v>
@@ -6096,19 +6096,19 @@
         <v>296020</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>276222</v>
+        <v>274687</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>316241</v>
+        <v>315819</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7397386150196124</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6902623653147537</v>
+        <v>0.6864265026771024</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7902673963652646</v>
+        <v>0.7892143860235276</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>481</v>
@@ -6117,19 +6117,19 @@
         <v>515145</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>491681</v>
+        <v>490737</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>535947</v>
+        <v>535814</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7838876623769329</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7481819829176871</v>
+        <v>0.7467455736787376</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8155418465323069</v>
+        <v>0.8153395407643428</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>212698</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>185084</v>
+        <v>186278</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>245386</v>
+        <v>242556</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06266233043007094</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05452705418241923</v>
+        <v>0.05487889444617853</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07229249793615865</v>
+        <v>0.0714587886004555</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>486</v>
@@ -6242,19 +6242,19 @@
         <v>538331</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>495460</v>
+        <v>495132</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>584598</v>
+        <v>586360</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1518761437633046</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1397812206681608</v>
+        <v>0.13968864298809</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1649289782620119</v>
+        <v>0.165426064505011</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>692</v>
@@ -6263,19 +6263,19 @@
         <v>751029</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>697762</v>
+        <v>698555</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>805572</v>
+        <v>804651</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1082347492915023</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1005581341675076</v>
+        <v>0.1006724758896181</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1160952366650049</v>
+        <v>0.1159624068668762</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>3181652</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3148964</v>
+        <v>3151794</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3209266</v>
+        <v>3208072</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.937337669569929</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9277075020638413</v>
+        <v>0.9285412113995445</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9454729458175808</v>
+        <v>0.9451211055538215</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2852</v>
@@ -6313,19 +6313,19 @@
         <v>3006211</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2959944</v>
+        <v>2958182</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3049082</v>
+        <v>3049410</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8481238562366954</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8350710217379881</v>
+        <v>0.834573935494989</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8602187793318392</v>
+        <v>0.86031135701191</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5877</v>
@@ -6334,19 +6334,19 @@
         <v>6187863</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6133320</v>
+        <v>6134241</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6241130</v>
+        <v>6240337</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8917652507084977</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8839047633349951</v>
+        <v>0.8840375931331239</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8994418658324925</v>
+        <v>0.8993275241103822</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>6351</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1276</v>
+        <v>1250</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20924</v>
+        <v>17658</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01557474376668302</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003129437830487432</v>
+        <v>0.003065045321221952</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05131153550123982</v>
+        <v>0.04330237729152137</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -6702,19 +6702,19 @@
         <v>15138</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6021</v>
+        <v>6105</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>33192</v>
+        <v>33031</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04175811920318351</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0166079730807827</v>
+        <v>0.01684135585628409</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09156164511450354</v>
+        <v>0.09111681986438565</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -6723,19 +6723,19 @@
         <v>21489</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>11670</v>
+        <v>10582</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>40820</v>
+        <v>39520</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02789685861359739</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01515015344548603</v>
+        <v>0.01373798619849377</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05299225531182484</v>
+        <v>0.05130377059492828</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>401442</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>386869</v>
+        <v>390135</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>406517</v>
+        <v>406543</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9844252562333171</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9486884644987601</v>
+        <v>0.9566976227084782</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9968705621695125</v>
+        <v>0.996934954678778</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>200</v>
@@ -6773,19 +6773,19 @@
         <v>347374</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>329320</v>
+        <v>329481</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>356491</v>
+        <v>356407</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9582418807968165</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9084383548854964</v>
+        <v>0.9088831801356169</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9833920269192172</v>
+        <v>0.9831586441437158</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>369</v>
@@ -6794,19 +6794,19 @@
         <v>748816</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>729485</v>
+        <v>730785</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>758635</v>
+        <v>759723</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9721031413864029</v>
+        <v>0.9721031413864026</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9470077446881751</v>
+        <v>0.9486962294050718</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9848498465545139</v>
+        <v>0.9862620138015061</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>11012</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5087</v>
+        <v>5129</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22237</v>
+        <v>21470</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02309081734605044</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01066634313153707</v>
+        <v>0.01075426986292617</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04662964924046181</v>
+        <v>0.04502142239178333</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -6919,19 +6919,19 @@
         <v>21488</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12972</v>
+        <v>12802</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>32844</v>
+        <v>33008</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.04282703156709877</v>
+        <v>0.04282703156709878</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02585399279823666</v>
+        <v>0.02551608191205973</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06546164079276164</v>
+        <v>0.06578727684958738</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>27</v>
@@ -6940,19 +6940,19 @@
         <v>32500</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>22114</v>
+        <v>21497</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>46249</v>
+        <v>45129</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.03320942636935801</v>
+        <v>0.03320942636935802</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.022597444439288</v>
+        <v>0.0219663248069638</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0472594616677252</v>
+        <v>0.0461150409878848</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>465878</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>454653</v>
+        <v>455420</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>471803</v>
+        <v>471761</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9769091826539494</v>
+        <v>0.9769091826539497</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.953370350759538</v>
+        <v>0.9549785776082163</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.989333656868463</v>
+        <v>0.9892457301370735</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>442</v>
@@ -6990,19 +6990,19 @@
         <v>480245</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>468889</v>
+        <v>468725</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>488761</v>
+        <v>488931</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9571729684329011</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9345383592072382</v>
+        <v>0.9342127231504125</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9741460072017633</v>
+        <v>0.9744839180879402</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>736</v>
@@ -7011,19 +7011,19 @@
         <v>946123</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>932374</v>
+        <v>933494</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>956509</v>
+        <v>957126</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9667905736306419</v>
+        <v>0.9667905736306421</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9527405383322749</v>
+        <v>0.9538849590121149</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9774025555607122</v>
+        <v>0.9780336751930361</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>31430</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21385</v>
+        <v>21156</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45061</v>
+        <v>45067</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.05062489045094512</v>
+        <v>0.05062489045094513</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03444491333892311</v>
+        <v>0.03407598555764547</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.072580374612839</v>
+        <v>0.07259124408341126</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>80</v>
@@ -7136,19 +7136,19 @@
         <v>57341</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>45786</v>
+        <v>46742</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>70162</v>
+        <v>71407</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09201238776058376</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07347047149250163</v>
+        <v>0.07500450445965924</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1125854226571611</v>
+        <v>0.1145831960196105</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>107</v>
@@ -7157,19 +7157,19 @@
         <v>88771</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>74249</v>
+        <v>73066</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>106748</v>
+        <v>107400</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.07135782664060689</v>
+        <v>0.07135782664060687</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05968425689592426</v>
+        <v>0.05873374519086535</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08580801432838885</v>
+        <v>0.08633254690767592</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>589407</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>575776</v>
+        <v>575770</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>599452</v>
+        <v>599681</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.949375109549055</v>
+        <v>0.9493751095490548</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9274196253871612</v>
+        <v>0.9274087559165887</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.965555086661077</v>
+        <v>0.9659240144423544</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>768</v>
@@ -7207,19 +7207,19 @@
         <v>565852</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>553031</v>
+        <v>551786</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>577407</v>
+        <v>576451</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9079876122394162</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8874145773428388</v>
+        <v>0.8854168039803896</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.926529528507498</v>
+        <v>0.9249954955403408</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1287</v>
@@ -7228,19 +7228,19 @@
         <v>1155258</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1137281</v>
+        <v>1136629</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1169780</v>
+        <v>1170963</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9286421733593931</v>
+        <v>0.928642173359393</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9141919856716112</v>
+        <v>0.9136674530923244</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9403157431040757</v>
+        <v>0.9412662548091347</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>65294</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>49872</v>
+        <v>50778</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>82119</v>
+        <v>83512</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09319455200142919</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07118329276372912</v>
+        <v>0.07247597607028743</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1172102418444126</v>
+        <v>0.1191982844215369</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>165</v>
@@ -7353,19 +7353,19 @@
         <v>107483</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>91863</v>
+        <v>93308</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>122515</v>
+        <v>122970</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1458607444074599</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1246634313439376</v>
+        <v>0.1266252543693385</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1662608641463536</v>
+        <v>0.1668784096805806</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>223</v>
@@ -7374,19 +7374,19 @@
         <v>172777</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>151068</v>
+        <v>151682</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>195251</v>
+        <v>194799</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1201920505687841</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1050906777376757</v>
+        <v>0.1055179252297453</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1358265348080091</v>
+        <v>0.1355119453199386</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>635323</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>618498</v>
+        <v>617105</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>650745</v>
+        <v>649839</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9068054479985709</v>
+        <v>0.9068054479985707</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8827897581555877</v>
+        <v>0.880801715578463</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9288167072362715</v>
+        <v>0.9275240239297124</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>976</v>
@@ -7424,19 +7424,19 @@
         <v>629403</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>614371</v>
+        <v>613916</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>645023</v>
+        <v>643578</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8541392555925402</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8337391358536465</v>
+        <v>0.8331215903194192</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8753365686560625</v>
+        <v>0.8733747456306612</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1583</v>
@@ -7445,19 +7445,19 @@
         <v>1264727</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1242253</v>
+        <v>1242705</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1286436</v>
+        <v>1285822</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8798079494312159</v>
+        <v>0.879807949431216</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.864173465191991</v>
+        <v>0.8644880546800613</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8949093222623244</v>
+        <v>0.8944820747702548</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>72319</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>58013</v>
+        <v>58152</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>89544</v>
+        <v>88001</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1186831844659003</v>
+        <v>0.1186831844659004</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09520475386579276</v>
+        <v>0.09543318232273466</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1469510309269975</v>
+        <v>0.1444181816989703</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>249</v>
@@ -7570,19 +7570,19 @@
         <v>152631</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>137118</v>
+        <v>136194</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>169912</v>
+        <v>169897</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.2506854545544764</v>
+        <v>0.2506854545544765</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2252057202812589</v>
+        <v>0.2236881466899239</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.279067771894303</v>
+        <v>0.2790434110501769</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>328</v>
@@ -7591,19 +7591,19 @@
         <v>224950</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>203898</v>
+        <v>200837</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>250307</v>
+        <v>247565</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1846577151943238</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1673758940103668</v>
+        <v>0.1648638451155564</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2054726519279456</v>
+        <v>0.2032216617661178</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>537027</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>519802</v>
+        <v>521345</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>551333</v>
+        <v>551194</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8813168155340996</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8530489690730025</v>
+        <v>0.8555818183010298</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.904795246134207</v>
+        <v>0.9045668176772653</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>753</v>
@@ -7641,19 +7641,19 @@
         <v>456224</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>438943</v>
+        <v>438958</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>471737</v>
+        <v>472661</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7493145454455233</v>
+        <v>0.7493145454455236</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7209322281056969</v>
+        <v>0.7209565889498231</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7747942797187412</v>
+        <v>0.7763118533100761</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1337</v>
@@ -7662,19 +7662,19 @@
         <v>993252</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>967895</v>
+        <v>970637</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1014304</v>
+        <v>1017365</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8153422848056762</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7945273480720541</v>
+        <v>0.7967783382338822</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8326241059896334</v>
+        <v>0.8351361548844437</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>48273</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>38613</v>
+        <v>38696</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>60175</v>
+        <v>58999</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.1185843637950458</v>
+        <v>0.1185843637950459</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.094852594792407</v>
+        <v>0.09505828314051333</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1478199633489926</v>
+        <v>0.1449328845061147</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>231</v>
@@ -7787,19 +7787,19 @@
         <v>125319</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>111001</v>
+        <v>110475</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>139721</v>
+        <v>137624</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.285356812394338</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2527536525235594</v>
+        <v>0.2515564030960473</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3181501978458166</v>
+        <v>0.3133754467686526</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>302</v>
@@ -7808,19 +7808,19 @@
         <v>173592</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>157654</v>
+        <v>155649</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>194284</v>
+        <v>192361</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2051322796990236</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1862979912505392</v>
+        <v>0.1839285020776106</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2295832268165023</v>
+        <v>0.2273114554497191</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>358807</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>346905</v>
+        <v>348081</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>368467</v>
+        <v>368384</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8814156362049541</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8521800366510078</v>
+        <v>0.8550671154938855</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.905147405207593</v>
+        <v>0.9049417168594867</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>596</v>
@@ -7858,19 +7858,19 @@
         <v>313847</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>299445</v>
+        <v>301542</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>328165</v>
+        <v>328691</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.714643187605662</v>
+        <v>0.7146431876056621</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6818498021541833</v>
+        <v>0.6866245532313474</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7472463474764409</v>
+        <v>0.7484435969039527</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1095</v>
@@ -7879,19 +7879,19 @@
         <v>672654</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>651962</v>
+        <v>653885</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>688592</v>
+        <v>690597</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7948677203009764</v>
+        <v>0.7948677203009765</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7704167731834978</v>
+        <v>0.7726885445502808</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8137020087494609</v>
+        <v>0.8160714979223895</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>70631</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>59234</v>
+        <v>59564</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>82376</v>
+        <v>83439</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2276978392643723</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1909548522635187</v>
+        <v>0.1920178820606415</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2655609445145808</v>
+        <v>0.2689876917926005</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>325</v>
@@ -8004,19 +8004,19 @@
         <v>173072</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>157415</v>
+        <v>158645</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>188954</v>
+        <v>188235</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3725119945809759</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3388111752190181</v>
+        <v>0.3414594654887048</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4066943009204779</v>
+        <v>0.4051466230845188</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>437</v>
@@ -8025,19 +8025,19 @@
         <v>243704</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>225157</v>
+        <v>224046</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>263611</v>
+        <v>263424</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.314534853867418</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.290596888826074</v>
+        <v>0.2891639466265522</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3402276841574239</v>
+        <v>0.3399861774145997</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>239567</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>227822</v>
+        <v>226759</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>250964</v>
+        <v>250634</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.7723021607356276</v>
+        <v>0.7723021607356274</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7344390554854192</v>
+        <v>0.7310123082073994</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8090451477364812</v>
+        <v>0.8079821179393583</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>556</v>
@@ -8075,19 +8075,19 @@
         <v>291537</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>275655</v>
+        <v>276374</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>307194</v>
+        <v>305964</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6274880054190241</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5933056990795228</v>
+        <v>0.5948533769154809</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.661188824780982</v>
+        <v>0.658540534511295</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>902</v>
@@ -8096,19 +8096,19 @@
         <v>531103</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>511196</v>
+        <v>511383</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>549650</v>
+        <v>550761</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.685465146132582</v>
+        <v>0.6854651461325819</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6597723158425761</v>
+        <v>0.6600138225854003</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.709403111173926</v>
+        <v>0.7108360533734477</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>305311</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>271348</v>
+        <v>272755</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>338871</v>
+        <v>340144</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08642261199445743</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07680896252088661</v>
+        <v>0.07720743472747255</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09592231400750947</v>
+        <v>0.09628282270148825</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1076</v>
@@ -8221,19 +8221,19 @@
         <v>652472</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>613837</v>
+        <v>618933</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>690323</v>
+        <v>694369</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.1746000586174658</v>
+        <v>0.1746000586174659</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1642613995045958</v>
+        <v>0.1656248994785302</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1847286610536542</v>
+        <v>0.1858114030307083</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1434</v>
@@ -8242,19 +8242,19 @@
         <v>957783</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>910419</v>
+        <v>907136</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1010484</v>
+        <v>1009452</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1317497022331892</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1252344288296142</v>
+        <v>0.1247829083231158</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1389990655670844</v>
+        <v>0.1388571139817483</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>3227451</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3193891</v>
+        <v>3192618</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3261414</v>
+        <v>3260007</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9135773880055427</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9040776859924906</v>
+        <v>0.903717177298512</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9231910374791136</v>
+        <v>0.9227925652725276</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4291</v>
@@ -8292,19 +8292,19 @@
         <v>3084482</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3046631</v>
+        <v>3042585</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3123117</v>
+        <v>3118021</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.8253999413825344</v>
+        <v>0.8253999413825341</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8152713389463457</v>
+        <v>0.8141885969692918</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8357386004954042</v>
+        <v>0.8343751005214698</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7309</v>
@@ -8313,19 +8313,19 @@
         <v>6311933</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6259232</v>
+        <v>6260264</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6359297</v>
+        <v>6362580</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.8682502977668107</v>
+        <v>0.8682502977668105</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8610009344329157</v>
+        <v>0.8611428860182516</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8747655711703859</v>
+        <v>0.8752170916768842</v>
       </c>
     </row>
     <row r="27">
